--- a/Code/Results/Cases/Case_3_153/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_153/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.028924738499076</v>
+        <v>1.059823021316717</v>
       </c>
       <c r="D2">
-        <v>1.045735606231495</v>
+        <v>1.065182748514129</v>
       </c>
       <c r="E2">
-        <v>1.030954606634998</v>
+        <v>1.055647459051967</v>
       </c>
       <c r="F2">
-        <v>1.050898305902213</v>
+        <v>1.074988047093087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056614174856811</v>
+        <v>1.051889597260631</v>
       </c>
       <c r="J2">
-        <v>1.050273440702394</v>
+        <v>1.064807055956093</v>
       </c>
       <c r="K2">
-        <v>1.056592525189502</v>
+        <v>1.06789667691699</v>
       </c>
       <c r="L2">
-        <v>1.041998902611746</v>
+        <v>1.05838734145741</v>
       </c>
       <c r="M2">
-        <v>1.061691323696454</v>
+        <v>1.077675805665224</v>
       </c>
       <c r="N2">
-        <v>1.051764949456239</v>
+        <v>1.066319204110627</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.034918248186809</v>
+        <v>1.061049478872867</v>
       </c>
       <c r="D3">
-        <v>1.05053340800242</v>
+        <v>1.066182766418782</v>
       </c>
       <c r="E3">
-        <v>1.035914427198972</v>
+        <v>1.056703305008444</v>
       </c>
       <c r="F3">
-        <v>1.056275772189094</v>
+        <v>1.076136026717236</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058877947009033</v>
+        <v>1.052287913127249</v>
       </c>
       <c r="J3">
-        <v>1.054500243093011</v>
+        <v>1.0656855974847</v>
       </c>
       <c r="K3">
-        <v>1.060558091468471</v>
+        <v>1.068711582409388</v>
       </c>
       <c r="L3">
-        <v>1.046107507893391</v>
+        <v>1.059256052219</v>
       </c>
       <c r="M3">
-        <v>1.066235878759068</v>
+        <v>1.078640203635123</v>
       </c>
       <c r="N3">
-        <v>1.055997754391072</v>
+        <v>1.067198993268975</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.038701792299906</v>
+        <v>1.061842857764436</v>
       </c>
       <c r="D4">
-        <v>1.053565134593832</v>
+        <v>1.066829627247504</v>
       </c>
       <c r="E4">
-        <v>1.039050602625977</v>
+        <v>1.057386536400972</v>
       </c>
       <c r="F4">
-        <v>1.059676434996399</v>
+        <v>1.076878971464871</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060297586640613</v>
+        <v>1.052544338318232</v>
       </c>
       <c r="J4">
-        <v>1.057164765999574</v>
+        <v>1.066253310833571</v>
       </c>
       <c r="K4">
-        <v>1.063057359619989</v>
+        <v>1.06923804820781</v>
       </c>
       <c r="L4">
-        <v>1.048699503471275</v>
+        <v>1.059817593257679</v>
       </c>
       <c r="M4">
-        <v>1.069104261595892</v>
+        <v>1.079263771061842</v>
       </c>
       <c r="N4">
-        <v>1.058666061225786</v>
+        <v>1.067767512835919</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.040270750669186</v>
+        <v>1.062176343239066</v>
       </c>
       <c r="D5">
-        <v>1.054822982905159</v>
+        <v>1.067101516327273</v>
       </c>
       <c r="E5">
-        <v>1.040352290069809</v>
+        <v>1.057673774664834</v>
       </c>
       <c r="F5">
-        <v>1.061087997733509</v>
+        <v>1.077191336488313</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060883977240038</v>
+        <v>1.052651825940262</v>
       </c>
       <c r="J5">
-        <v>1.058268744562679</v>
+        <v>1.066491796249156</v>
       </c>
       <c r="K5">
-        <v>1.064092720176614</v>
+        <v>1.069459176034576</v>
       </c>
       <c r="L5">
-        <v>1.049773901875127</v>
+        <v>1.060053528903621</v>
       </c>
       <c r="M5">
-        <v>1.070293547401055</v>
+        <v>1.079525809072336</v>
       </c>
       <c r="N5">
-        <v>1.059771607565079</v>
+        <v>1.068006336928149</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.040532944863517</v>
+        <v>1.062232333982593</v>
       </c>
       <c r="D6">
-        <v>1.055033222927267</v>
+        <v>1.067147164722782</v>
       </c>
       <c r="E6">
-        <v>1.040569887309525</v>
+        <v>1.057722003718152</v>
       </c>
       <c r="F6">
-        <v>1.061323968159192</v>
+        <v>1.07724378580268</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060981834257625</v>
+        <v>1.052669855214697</v>
       </c>
       <c r="J6">
-        <v>1.058453177497361</v>
+        <v>1.066531828401442</v>
       </c>
       <c r="K6">
-        <v>1.064265680585361</v>
+        <v>1.069496292762423</v>
       </c>
       <c r="L6">
-        <v>1.049953420544483</v>
+        <v>1.060093135577121</v>
       </c>
       <c r="M6">
-        <v>1.07049228125263</v>
+        <v>1.079569800001412</v>
       </c>
       <c r="N6">
-        <v>1.059956302415684</v>
+        <v>1.068046425930682</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.038722840544796</v>
+        <v>1.061847314011683</v>
       </c>
       <c r="D7">
-        <v>1.053582006667611</v>
+        <v>1.066833260442815</v>
       </c>
       <c r="E7">
-        <v>1.039068060732281</v>
+        <v>1.057390374460897</v>
       </c>
       <c r="F7">
-        <v>1.059695366348867</v>
+        <v>1.076883145178228</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060305462491</v>
+        <v>1.052545775804396</v>
       </c>
       <c r="J7">
-        <v>1.057179580135961</v>
+        <v>1.066256498198292</v>
       </c>
       <c r="K7">
-        <v>1.063071253583475</v>
+        <v>1.069241003707062</v>
       </c>
       <c r="L7">
-        <v>1.048713918825314</v>
+        <v>1.05982074637534</v>
       </c>
       <c r="M7">
-        <v>1.069120217136202</v>
+        <v>1.079267272856499</v>
       </c>
       <c r="N7">
-        <v>1.058680896399947</v>
+        <v>1.067770704727063</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.030970506626389</v>
+        <v>1.06023755534645</v>
       </c>
       <c r="D8">
-        <v>1.047372569474623</v>
+        <v>1.065520754842465</v>
       </c>
       <c r="E8">
-        <v>1.032646418818221</v>
+        <v>1.056004281831189</v>
       </c>
       <c r="F8">
-        <v>1.052732494738213</v>
+        <v>1.075375986919335</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057388822390996</v>
+        <v>1.052024481905407</v>
       </c>
       <c r="J8">
-        <v>1.051716936459415</v>
+        <v>1.065104121565526</v>
       </c>
       <c r="K8">
-        <v>1.057946920321293</v>
+        <v>1.06817225098094</v>
       </c>
       <c r="L8">
-        <v>1.043401611712864</v>
+        <v>1.05868104552419</v>
       </c>
       <c r="M8">
-        <v>1.063242581302033</v>
+        <v>1.078001824849673</v>
       </c>
       <c r="N8">
-        <v>1.053210495142806</v>
+        <v>1.066616691587299</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01653553252747</v>
+        <v>1.057399174308826</v>
       </c>
       <c r="D9">
-        <v>1.035837940117415</v>
+        <v>1.063206245350035</v>
       </c>
       <c r="E9">
-        <v>1.020733827858466</v>
+        <v>1.05356198342081</v>
       </c>
       <c r="F9">
-        <v>1.039819047193479</v>
+        <v>1.072721091083212</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051884528295389</v>
+        <v>1.05109582501577</v>
       </c>
       <c r="J9">
-        <v>1.041517593258514</v>
+        <v>1.063067603256284</v>
       </c>
       <c r="K9">
-        <v>1.048375150545317</v>
+        <v>1.066282554346301</v>
       </c>
       <c r="L9">
-        <v>1.033499237088343</v>
+        <v>1.056668316292494</v>
       </c>
       <c r="M9">
-        <v>1.052297511314738</v>
+        <v>1.075768356105303</v>
       </c>
       <c r="N9">
-        <v>1.042996667704678</v>
+        <v>1.064577281188466</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006316143326022</v>
+        <v>1.055505599555742</v>
       </c>
       <c r="D10">
-        <v>1.027695645088236</v>
+        <v>1.061662032573637</v>
       </c>
       <c r="E10">
-        <v>1.012335233313794</v>
+        <v>1.051933837223691</v>
       </c>
       <c r="F10">
-        <v>1.030716901388653</v>
+        <v>1.070951700778387</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047941025476596</v>
+        <v>1.050469915390834</v>
       </c>
       <c r="J10">
-        <v>1.034281386751854</v>
+        <v>1.06170589767089</v>
       </c>
       <c r="K10">
-        <v>1.041582225428672</v>
+        <v>1.065018381467572</v>
       </c>
       <c r="L10">
-        <v>1.026485286597274</v>
+        <v>1.055323455644023</v>
       </c>
       <c r="M10">
-        <v>1.044552849772918</v>
+        <v>1.074276899276026</v>
       </c>
       <c r="N10">
-        <v>1.035750184954775</v>
+        <v>1.063213641824951</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001730712644028</v>
+        <v>1.054685319328384</v>
       </c>
       <c r="D11">
-        <v>1.024049108713328</v>
+        <v>1.060993071330277</v>
       </c>
       <c r="E11">
-        <v>1.008576283486808</v>
+        <v>1.051228829359015</v>
       </c>
       <c r="F11">
-        <v>1.026643543998755</v>
+        <v>1.070185646665942</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046161276223715</v>
+        <v>1.0501972674996</v>
       </c>
       <c r="J11">
-        <v>1.031031668771831</v>
+        <v>1.0611152925378</v>
       </c>
       <c r="K11">
-        <v>1.038531311335953</v>
+        <v>1.064469928848947</v>
       </c>
       <c r="L11">
-        <v>1.02333825595831</v>
+        <v>1.054740380264923</v>
       </c>
       <c r="M11">
-        <v>1.04107990590182</v>
+        <v>1.073630478983468</v>
       </c>
       <c r="N11">
-        <v>1.032495852002473</v>
+        <v>1.062622197964829</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.000001586448277</v>
+        <v>1.054380575641063</v>
       </c>
       <c r="D12">
-        <v>1.022675185898263</v>
+        <v>1.060744541928546</v>
       </c>
       <c r="E12">
-        <v>1.007160351052841</v>
+        <v>1.050966955174142</v>
       </c>
       <c r="F12">
-        <v>1.025109251175375</v>
+        <v>1.069901114077054</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045488671928439</v>
+        <v>1.05009574905055</v>
       </c>
       <c r="J12">
-        <v>1.02980587913311</v>
+        <v>1.060895767101398</v>
       </c>
       <c r="K12">
-        <v>1.037380487926338</v>
+        <v>1.064266048954084</v>
       </c>
       <c r="L12">
-        <v>1.022151643846835</v>
+        <v>1.054523687308436</v>
       </c>
       <c r="M12">
-        <v>1.039770705864518</v>
+        <v>1.073390276691558</v>
       </c>
       <c r="N12">
-        <v>1.031268321601864</v>
+        <v>1.062402360777127</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000373692441747</v>
+        <v>1.054445946729897</v>
       </c>
       <c r="D13">
-        <v>1.022970798414265</v>
+        <v>1.060797854495199</v>
       </c>
       <c r="E13">
-        <v>1.007464986947177</v>
+        <v>1.051023128228284</v>
       </c>
       <c r="F13">
-        <v>1.025439348914233</v>
+        <v>1.069962146673753</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045633481066274</v>
+        <v>1.050117536196161</v>
       </c>
       <c r="J13">
-        <v>1.03006968213117</v>
+        <v>1.060942862792183</v>
       </c>
       <c r="K13">
-        <v>1.037628158095079</v>
+        <v>1.064309789152781</v>
       </c>
       <c r="L13">
-        <v>1.022406995167411</v>
+        <v>1.054570173809232</v>
       </c>
       <c r="M13">
-        <v>1.040052423622997</v>
+        <v>1.073441805130471</v>
       </c>
       <c r="N13">
-        <v>1.03153249923044</v>
+        <v>1.062449523349195</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001588321779192</v>
+        <v>1.054660130258515</v>
       </c>
       <c r="D14">
-        <v>1.023935944150363</v>
+        <v>1.060972528787087</v>
       </c>
       <c r="E14">
-        <v>1.008459651820971</v>
+        <v>1.051207182823921</v>
       </c>
       <c r="F14">
-        <v>1.026517161425837</v>
+        <v>1.070162126836375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046105917842422</v>
+        <v>1.050188880952864</v>
       </c>
       <c r="J14">
-        <v>1.030930733514856</v>
+        <v>1.0610971495327</v>
       </c>
       <c r="K14">
-        <v>1.038436549370999</v>
+        <v>1.064453079348276</v>
       </c>
       <c r="L14">
-        <v>1.023240537610912</v>
+        <v>1.054722470666406</v>
       </c>
       <c r="M14">
-        <v>1.040972086206545</v>
+        <v>1.073610625692764</v>
       </c>
       <c r="N14">
-        <v>1.032394773405855</v>
+        <v>1.06260402919458</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002333207089627</v>
+        <v>1.05479208842418</v>
       </c>
       <c r="D15">
-        <v>1.024527986445072</v>
+        <v>1.061080145062026</v>
       </c>
       <c r="E15">
-        <v>1.009069846910835</v>
+        <v>1.051320584512196</v>
       </c>
       <c r="F15">
-        <v>1.027178374353194</v>
+        <v>1.070285343025931</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046395452929457</v>
+        <v>1.050232806340058</v>
       </c>
       <c r="J15">
-        <v>1.031458739538829</v>
+        <v>1.061192190976699</v>
       </c>
       <c r="K15">
-        <v>1.038932261268835</v>
+        <v>1.064541343903342</v>
       </c>
       <c r="L15">
-        <v>1.023751733689801</v>
+        <v>1.054816290799239</v>
       </c>
       <c r="M15">
-        <v>1.04153613795239</v>
+        <v>1.073714629245226</v>
       </c>
       <c r="N15">
-        <v>1.032923529258944</v>
+        <v>1.062699205608332</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006616934839011</v>
+        <v>1.055560031266254</v>
       </c>
       <c r="D16">
-        <v>1.027935000791417</v>
+        <v>1.061706422750935</v>
       </c>
       <c r="E16">
-        <v>1.012582016090026</v>
+        <v>1.051980625947671</v>
       </c>
       <c r="F16">
-        <v>1.030984335594625</v>
+        <v>1.07100254331733</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048057564017368</v>
+        <v>1.050487975833877</v>
       </c>
       <c r="J16">
-        <v>1.034494506644734</v>
+        <v>1.061745073461655</v>
       </c>
       <c r="K16">
-        <v>1.041782303451703</v>
+        <v>1.065054758071468</v>
       </c>
       <c r="L16">
-        <v>1.026691732822306</v>
+        <v>1.055362136692049</v>
       </c>
       <c r="M16">
-        <v>1.044780717041303</v>
+        <v>1.07431978709618</v>
       </c>
       <c r="N16">
-        <v>1.035963607502348</v>
+        <v>1.063252873249833</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009259852458978</v>
+        <v>1.056041646071894</v>
       </c>
       <c r="D17">
-        <v>1.030038905894968</v>
+        <v>1.062099187111381</v>
       </c>
       <c r="E17">
-        <v>1.014751471915558</v>
+        <v>1.052394648887167</v>
       </c>
       <c r="F17">
-        <v>1.03333539155581</v>
+        <v>1.071452450751064</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049080375111173</v>
+        <v>1.050647601348626</v>
       </c>
       <c r="J17">
-        <v>1.036366780738992</v>
+        <v>1.062091619229029</v>
       </c>
       <c r="K17">
-        <v>1.043539975222058</v>
+        <v>1.065376525191279</v>
       </c>
       <c r="L17">
-        <v>1.028505705284835</v>
+        <v>1.055704331837512</v>
       </c>
       <c r="M17">
-        <v>1.046783130084691</v>
+        <v>1.074699222406238</v>
       </c>
       <c r="N17">
-        <v>1.037838540440573</v>
+        <v>1.063599911151946</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010786078905973</v>
+        <v>1.056322530254894</v>
       </c>
       <c r="D18">
-        <v>1.031254508484507</v>
+        <v>1.062328250393509</v>
       </c>
       <c r="E18">
-        <v>1.01600517358581</v>
+        <v>1.052636140611726</v>
       </c>
       <c r="F18">
-        <v>1.034694083126877</v>
+        <v>1.071714884243594</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049670047851868</v>
+        <v>1.050740551484098</v>
       </c>
       <c r="J18">
-        <v>1.037447704148223</v>
+        <v>1.062293659288613</v>
       </c>
       <c r="K18">
-        <v>1.04455470832166</v>
+        <v>1.065564104572151</v>
       </c>
       <c r="L18">
-        <v>1.029553239773831</v>
+        <v>1.05590385699132</v>
       </c>
       <c r="M18">
-        <v>1.047939668381844</v>
+        <v>1.074920481878621</v>
       </c>
       <c r="N18">
-        <v>1.038920998885028</v>
+        <v>1.063802238131588</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011303932131851</v>
+        <v>1.056418298881871</v>
       </c>
       <c r="D19">
-        <v>1.031667072000216</v>
+        <v>1.062406350084131</v>
       </c>
       <c r="E19">
-        <v>1.016430706027652</v>
+        <v>1.052718482946467</v>
       </c>
       <c r="F19">
-        <v>1.035155259054401</v>
+        <v>1.071804369041601</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04986995764247</v>
+        <v>1.050772218517461</v>
       </c>
       <c r="J19">
-        <v>1.037814416128363</v>
+        <v>1.062362533791213</v>
       </c>
       <c r="K19">
-        <v>1.044898959651499</v>
+        <v>1.065628047042488</v>
       </c>
       <c r="L19">
-        <v>1.029908669827715</v>
+        <v>1.055971877827722</v>
       </c>
       <c r="M19">
-        <v>1.048332114404405</v>
+        <v>1.074995915722666</v>
       </c>
       <c r="N19">
-        <v>1.039288231638243</v>
+        <v>1.063871210443882</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008977891825049</v>
+        <v>1.055989976854516</v>
       </c>
       <c r="D20">
-        <v>1.029814382343453</v>
+        <v>1.062057050276751</v>
       </c>
       <c r="E20">
-        <v>1.014519929680013</v>
+        <v>1.05235022824317</v>
       </c>
       <c r="F20">
-        <v>1.033084462743704</v>
+        <v>1.071404178908992</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048971357196565</v>
+        <v>1.050630491258547</v>
       </c>
       <c r="J20">
-        <v>1.036167064355858</v>
+        <v>1.062054447905702</v>
       </c>
       <c r="K20">
-        <v>1.043352486176473</v>
+        <v>1.065342013178534</v>
       </c>
       <c r="L20">
-        <v>1.028312179795497</v>
+        <v>1.055667624941538</v>
       </c>
       <c r="M20">
-        <v>1.04656948156808</v>
+        <v>1.074658518673769</v>
       </c>
       <c r="N20">
-        <v>1.037638540437268</v>
+        <v>1.063562687041076</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.0012313738309</v>
+        <v>1.054597060088715</v>
       </c>
       <c r="D21">
-        <v>1.023652280210736</v>
+        <v>1.060921092880985</v>
       </c>
       <c r="E21">
-        <v>1.008167302581447</v>
+        <v>1.051152983423523</v>
       </c>
       <c r="F21">
-        <v>1.026200371688426</v>
+        <v>1.070103237288329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04596712096226</v>
+        <v>1.050167878466308</v>
       </c>
       <c r="J21">
-        <v>1.030677701875057</v>
+        <v>1.061051720041684</v>
       </c>
       <c r="K21">
-        <v>1.038198993080818</v>
+        <v>1.064410888389174</v>
       </c>
       <c r="L21">
-        <v>1.022995577536399</v>
+        <v>1.054677626162505</v>
       </c>
       <c r="M21">
-        <v>1.040701808963048</v>
+        <v>1.073560914823969</v>
       </c>
       <c r="N21">
-        <v>1.032141382432104</v>
+        <v>1.062558535188476</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9962099961033194</v>
+        <v>1.053720958058979</v>
       </c>
       <c r="D22">
-        <v>1.019664741859445</v>
+        <v>1.060206596431725</v>
       </c>
       <c r="E22">
-        <v>1.004058480327674</v>
+        <v>1.050400210766407</v>
       </c>
       <c r="F22">
-        <v>1.021748220924595</v>
+        <v>1.069285363988763</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044011165051007</v>
+        <v>1.049875598250481</v>
       </c>
       <c r="J22">
-        <v>1.027117442197841</v>
+        <v>1.060420405924963</v>
       </c>
       <c r="K22">
-        <v>1.03485644927283</v>
+        <v>1.063824525920114</v>
       </c>
       <c r="L22">
-        <v>1.019549964402803</v>
+        <v>1.054054521346779</v>
       </c>
       <c r="M22">
-        <v>1.036900811853632</v>
+        <v>1.072870268866831</v>
       </c>
       <c r="N22">
-        <v>1.028576066777779</v>
+        <v>1.061926324533297</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9988868693376981</v>
+        <v>1.054185427495554</v>
       </c>
       <c r="D23">
-        <v>1.021789798873309</v>
+        <v>1.060585391015223</v>
       </c>
       <c r="E23">
-        <v>1.006247987811474</v>
+        <v>1.050799271904971</v>
       </c>
       <c r="F23">
-        <v>1.024120641959447</v>
+        <v>1.069718927001379</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045054656960643</v>
+        <v>1.050030676110769</v>
       </c>
       <c r="J23">
-        <v>1.029015560191445</v>
+        <v>1.06075515944292</v>
       </c>
       <c r="K23">
-        <v>1.036638499013377</v>
+        <v>1.064135456099531</v>
       </c>
       <c r="L23">
-        <v>1.021386711086639</v>
+        <v>1.054384903373911</v>
       </c>
       <c r="M23">
-        <v>1.038926834245572</v>
+        <v>1.073236444908902</v>
       </c>
       <c r="N23">
-        <v>1.030476880316651</v>
+        <v>1.062261553439646</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009105344979101</v>
+        <v>1.056013324053568</v>
       </c>
       <c r="D24">
-        <v>1.029915870531382</v>
+        <v>1.062076090189897</v>
       </c>
       <c r="E24">
-        <v>1.014624589725168</v>
+        <v>1.052370300022866</v>
       </c>
       <c r="F24">
-        <v>1.033197885627867</v>
+        <v>1.0714259908455</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049020639020661</v>
+        <v>1.050638223056059</v>
       </c>
       <c r="J24">
-        <v>1.036257341936427</v>
+        <v>1.06207124431789</v>
       </c>
       <c r="K24">
-        <v>1.043437236731232</v>
+        <v>1.06535760798658</v>
       </c>
       <c r="L24">
-        <v>1.028399658074514</v>
+        <v>1.055684211428752</v>
       </c>
       <c r="M24">
-        <v>1.046666055382947</v>
+        <v>1.07467691111994</v>
       </c>
       <c r="N24">
-        <v>1.037728946222355</v>
+        <v>1.063579507306096</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.020366449699373</v>
+        <v>1.058133187565807</v>
       </c>
       <c r="D25">
-        <v>1.038895446548455</v>
+        <v>1.063804809852723</v>
       </c>
       <c r="E25">
-        <v>1.023889681513523</v>
+        <v>1.054193362087543</v>
       </c>
       <c r="F25">
-        <v>1.043239685221617</v>
+        <v>1.073407344832959</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053353556129023</v>
+        <v>1.051337102003237</v>
       </c>
       <c r="J25">
-        <v>1.044227317753502</v>
+        <v>1.063594796575069</v>
       </c>
       <c r="K25">
-        <v>1.050918540934772</v>
+        <v>1.066771852947434</v>
       </c>
       <c r="L25">
-        <v>1.03612812423003</v>
+        <v>1.057189186499579</v>
       </c>
       <c r="M25">
-        <v>1.055201894937008</v>
+        <v>1.076346193204516</v>
       </c>
       <c r="N25">
-        <v>1.04571024031926</v>
+        <v>1.065105223182234</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_153/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_153/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.059823021316717</v>
+        <v>1.028924738499077</v>
       </c>
       <c r="D2">
-        <v>1.065182748514129</v>
+        <v>1.045735606231496</v>
       </c>
       <c r="E2">
-        <v>1.055647459051967</v>
+        <v>1.030954606634999</v>
       </c>
       <c r="F2">
-        <v>1.074988047093087</v>
+        <v>1.050898305902215</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051889597260631</v>
+        <v>1.056614174856812</v>
       </c>
       <c r="J2">
-        <v>1.064807055956093</v>
+        <v>1.050273440702395</v>
       </c>
       <c r="K2">
-        <v>1.06789667691699</v>
+        <v>1.056592525189503</v>
       </c>
       <c r="L2">
-        <v>1.05838734145741</v>
+        <v>1.041998902611747</v>
       </c>
       <c r="M2">
-        <v>1.077675805665224</v>
+        <v>1.061691323696456</v>
       </c>
       <c r="N2">
-        <v>1.066319204110627</v>
+        <v>1.05176494945624</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061049478872867</v>
+        <v>1.034918248186808</v>
       </c>
       <c r="D3">
-        <v>1.066182766418782</v>
+        <v>1.050533408002419</v>
       </c>
       <c r="E3">
-        <v>1.056703305008444</v>
+        <v>1.035914427198972</v>
       </c>
       <c r="F3">
-        <v>1.076136026717236</v>
+        <v>1.056275772189093</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052287913127249</v>
+        <v>1.058877947009032</v>
       </c>
       <c r="J3">
-        <v>1.0656855974847</v>
+        <v>1.05450024309301</v>
       </c>
       <c r="K3">
-        <v>1.068711582409388</v>
+        <v>1.06055809146847</v>
       </c>
       <c r="L3">
-        <v>1.059256052219</v>
+        <v>1.04610750789339</v>
       </c>
       <c r="M3">
-        <v>1.078640203635123</v>
+        <v>1.066235878759066</v>
       </c>
       <c r="N3">
-        <v>1.067198993268975</v>
+        <v>1.05599775439107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.061842857764436</v>
+        <v>1.038701792299905</v>
       </c>
       <c r="D4">
-        <v>1.066829627247504</v>
+        <v>1.053565134593831</v>
       </c>
       <c r="E4">
-        <v>1.057386536400972</v>
+        <v>1.039050602625976</v>
       </c>
       <c r="F4">
-        <v>1.076878971464871</v>
+        <v>1.059676434996399</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052544338318232</v>
+        <v>1.060297586640613</v>
       </c>
       <c r="J4">
-        <v>1.066253310833571</v>
+        <v>1.057164765999573</v>
       </c>
       <c r="K4">
-        <v>1.06923804820781</v>
+        <v>1.063057359619988</v>
       </c>
       <c r="L4">
-        <v>1.059817593257679</v>
+        <v>1.048699503471274</v>
       </c>
       <c r="M4">
-        <v>1.079263771061842</v>
+        <v>1.069104261595892</v>
       </c>
       <c r="N4">
-        <v>1.067767512835919</v>
+        <v>1.058666061225786</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.062176343239066</v>
+        <v>1.040270750669186</v>
       </c>
       <c r="D5">
-        <v>1.067101516327273</v>
+        <v>1.054822982905159</v>
       </c>
       <c r="E5">
-        <v>1.057673774664834</v>
+        <v>1.040352290069809</v>
       </c>
       <c r="F5">
-        <v>1.077191336488313</v>
+        <v>1.061087997733508</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052651825940262</v>
+        <v>1.060883977240038</v>
       </c>
       <c r="J5">
-        <v>1.066491796249156</v>
+        <v>1.058268744562679</v>
       </c>
       <c r="K5">
-        <v>1.069459176034576</v>
+        <v>1.064092720176614</v>
       </c>
       <c r="L5">
-        <v>1.060053528903621</v>
+        <v>1.049773901875127</v>
       </c>
       <c r="M5">
-        <v>1.079525809072336</v>
+        <v>1.070293547401055</v>
       </c>
       <c r="N5">
-        <v>1.068006336928149</v>
+        <v>1.059771607565079</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.062232333982593</v>
+        <v>1.040532944863517</v>
       </c>
       <c r="D6">
-        <v>1.067147164722782</v>
+        <v>1.055033222927267</v>
       </c>
       <c r="E6">
-        <v>1.057722003718152</v>
+        <v>1.040569887309525</v>
       </c>
       <c r="F6">
-        <v>1.07724378580268</v>
+        <v>1.061323968159192</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052669855214697</v>
+        <v>1.060981834257625</v>
       </c>
       <c r="J6">
-        <v>1.066531828401442</v>
+        <v>1.058453177497362</v>
       </c>
       <c r="K6">
-        <v>1.069496292762423</v>
+        <v>1.064265680585362</v>
       </c>
       <c r="L6">
-        <v>1.060093135577121</v>
+        <v>1.049953420544483</v>
       </c>
       <c r="M6">
-        <v>1.079569800001412</v>
+        <v>1.07049228125263</v>
       </c>
       <c r="N6">
-        <v>1.068046425930682</v>
+        <v>1.059956302415684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.061847314011683</v>
+        <v>1.038722840544795</v>
       </c>
       <c r="D7">
-        <v>1.066833260442815</v>
+        <v>1.053582006667612</v>
       </c>
       <c r="E7">
-        <v>1.057390374460897</v>
+        <v>1.039068060732281</v>
       </c>
       <c r="F7">
-        <v>1.076883145178228</v>
+        <v>1.059695366348867</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052545775804396</v>
+        <v>1.060305462491</v>
       </c>
       <c r="J7">
-        <v>1.066256498198292</v>
+        <v>1.057179580135961</v>
       </c>
       <c r="K7">
-        <v>1.069241003707062</v>
+        <v>1.063071253583475</v>
       </c>
       <c r="L7">
-        <v>1.05982074637534</v>
+        <v>1.048713918825314</v>
       </c>
       <c r="M7">
-        <v>1.079267272856499</v>
+        <v>1.069120217136203</v>
       </c>
       <c r="N7">
-        <v>1.067770704727063</v>
+        <v>1.058680896399947</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.06023755534645</v>
+        <v>1.030970506626389</v>
       </c>
       <c r="D8">
-        <v>1.065520754842465</v>
+        <v>1.047372569474624</v>
       </c>
       <c r="E8">
-        <v>1.056004281831189</v>
+        <v>1.032646418818221</v>
       </c>
       <c r="F8">
-        <v>1.075375986919335</v>
+        <v>1.052732494738213</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052024481905407</v>
+        <v>1.057388822390997</v>
       </c>
       <c r="J8">
-        <v>1.065104121565526</v>
+        <v>1.051716936459415</v>
       </c>
       <c r="K8">
-        <v>1.06817225098094</v>
+        <v>1.057946920321293</v>
       </c>
       <c r="L8">
-        <v>1.05868104552419</v>
+        <v>1.043401611712864</v>
       </c>
       <c r="M8">
-        <v>1.078001824849673</v>
+        <v>1.063242581302033</v>
       </c>
       <c r="N8">
-        <v>1.066616691587299</v>
+        <v>1.053210495142805</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.057399174308826</v>
+        <v>1.016535532527468</v>
       </c>
       <c r="D9">
-        <v>1.063206245350035</v>
+        <v>1.035837940117412</v>
       </c>
       <c r="E9">
-        <v>1.05356198342081</v>
+        <v>1.020733827858464</v>
       </c>
       <c r="F9">
-        <v>1.072721091083212</v>
+        <v>1.039819047193477</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05109582501577</v>
+        <v>1.051884528295387</v>
       </c>
       <c r="J9">
-        <v>1.063067603256284</v>
+        <v>1.041517593258512</v>
       </c>
       <c r="K9">
-        <v>1.066282554346301</v>
+        <v>1.048375150545315</v>
       </c>
       <c r="L9">
-        <v>1.056668316292494</v>
+        <v>1.033499237088341</v>
       </c>
       <c r="M9">
-        <v>1.075768356105303</v>
+        <v>1.052297511314735</v>
       </c>
       <c r="N9">
-        <v>1.064577281188466</v>
+        <v>1.042996667704676</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055505599555742</v>
+        <v>1.00631614332602</v>
       </c>
       <c r="D10">
-        <v>1.061662032573637</v>
+        <v>1.027695645088235</v>
       </c>
       <c r="E10">
-        <v>1.051933837223691</v>
+        <v>1.012335233313793</v>
       </c>
       <c r="F10">
-        <v>1.070951700778387</v>
+        <v>1.030716901388652</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050469915390834</v>
+        <v>1.047941025476595</v>
       </c>
       <c r="J10">
-        <v>1.06170589767089</v>
+        <v>1.034281386751853</v>
       </c>
       <c r="K10">
-        <v>1.065018381467572</v>
+        <v>1.041582225428671</v>
       </c>
       <c r="L10">
-        <v>1.055323455644023</v>
+        <v>1.026485286597272</v>
       </c>
       <c r="M10">
-        <v>1.074276899276026</v>
+        <v>1.044552849772916</v>
       </c>
       <c r="N10">
-        <v>1.063213641824951</v>
+        <v>1.035750184954774</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054685319328384</v>
+        <v>1.001730712644028</v>
       </c>
       <c r="D11">
-        <v>1.060993071330277</v>
+        <v>1.024049108713327</v>
       </c>
       <c r="E11">
-        <v>1.051228829359015</v>
+        <v>1.008576283486808</v>
       </c>
       <c r="F11">
-        <v>1.070185646665942</v>
+        <v>1.026643543998755</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0501972674996</v>
+        <v>1.046161276223716</v>
       </c>
       <c r="J11">
-        <v>1.0611152925378</v>
+        <v>1.031031668771831</v>
       </c>
       <c r="K11">
-        <v>1.064469928848947</v>
+        <v>1.038531311335953</v>
       </c>
       <c r="L11">
-        <v>1.054740380264923</v>
+        <v>1.02333825595831</v>
       </c>
       <c r="M11">
-        <v>1.073630478983468</v>
+        <v>1.04107990590182</v>
       </c>
       <c r="N11">
-        <v>1.062622197964829</v>
+        <v>1.032495852002472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054380575641063</v>
+        <v>1.000001586448277</v>
       </c>
       <c r="D12">
-        <v>1.060744541928546</v>
+        <v>1.022675185898263</v>
       </c>
       <c r="E12">
-        <v>1.050966955174142</v>
+        <v>1.007160351052841</v>
       </c>
       <c r="F12">
-        <v>1.069901114077054</v>
+        <v>1.025109251175374</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05009574905055</v>
+        <v>1.045488671928439</v>
       </c>
       <c r="J12">
-        <v>1.060895767101398</v>
+        <v>1.029805879133109</v>
       </c>
       <c r="K12">
-        <v>1.064266048954084</v>
+        <v>1.037380487926337</v>
       </c>
       <c r="L12">
-        <v>1.054523687308436</v>
+        <v>1.022151643846835</v>
       </c>
       <c r="M12">
-        <v>1.073390276691558</v>
+        <v>1.039770705864517</v>
       </c>
       <c r="N12">
-        <v>1.062402360777127</v>
+        <v>1.031268321601863</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054445946729897</v>
+        <v>1.000373692441747</v>
       </c>
       <c r="D13">
-        <v>1.060797854495199</v>
+        <v>1.022970798414265</v>
       </c>
       <c r="E13">
-        <v>1.051023128228284</v>
+        <v>1.007464986947177</v>
       </c>
       <c r="F13">
-        <v>1.069962146673753</v>
+        <v>1.025439348914233</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050117536196161</v>
+        <v>1.045633481066274</v>
       </c>
       <c r="J13">
-        <v>1.060942862792183</v>
+        <v>1.03006968213117</v>
       </c>
       <c r="K13">
-        <v>1.064309789152781</v>
+        <v>1.03762815809508</v>
       </c>
       <c r="L13">
-        <v>1.054570173809232</v>
+        <v>1.022406995167411</v>
       </c>
       <c r="M13">
-        <v>1.073441805130471</v>
+        <v>1.040052423622997</v>
       </c>
       <c r="N13">
-        <v>1.062449523349195</v>
+        <v>1.03153249923044</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054660130258515</v>
+        <v>1.001588321779189</v>
       </c>
       <c r="D14">
-        <v>1.060972528787087</v>
+        <v>1.023935944150361</v>
       </c>
       <c r="E14">
-        <v>1.051207182823921</v>
+        <v>1.008459651820968</v>
       </c>
       <c r="F14">
-        <v>1.070162126836375</v>
+        <v>1.026517161425834</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050188880952864</v>
+        <v>1.04610591784242</v>
       </c>
       <c r="J14">
-        <v>1.0610971495327</v>
+        <v>1.030930733514853</v>
       </c>
       <c r="K14">
-        <v>1.064453079348276</v>
+        <v>1.038436549370997</v>
       </c>
       <c r="L14">
-        <v>1.054722470666406</v>
+        <v>1.023240537610909</v>
       </c>
       <c r="M14">
-        <v>1.073610625692764</v>
+        <v>1.040972086206543</v>
       </c>
       <c r="N14">
-        <v>1.06260402919458</v>
+        <v>1.032394773405852</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05479208842418</v>
+        <v>1.002333207089628</v>
       </c>
       <c r="D15">
-        <v>1.061080145062026</v>
+        <v>1.024527986445073</v>
       </c>
       <c r="E15">
-        <v>1.051320584512196</v>
+        <v>1.009069846910836</v>
       </c>
       <c r="F15">
-        <v>1.070285343025931</v>
+        <v>1.027178374353195</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050232806340058</v>
+        <v>1.046395452929458</v>
       </c>
       <c r="J15">
-        <v>1.061192190976699</v>
+        <v>1.031458739538829</v>
       </c>
       <c r="K15">
-        <v>1.064541343903342</v>
+        <v>1.038932261268835</v>
       </c>
       <c r="L15">
-        <v>1.054816290799239</v>
+        <v>1.023751733689802</v>
       </c>
       <c r="M15">
-        <v>1.073714629245226</v>
+        <v>1.04153613795239</v>
       </c>
       <c r="N15">
-        <v>1.062699205608332</v>
+        <v>1.032923529258946</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055560031266254</v>
+        <v>1.006616934839011</v>
       </c>
       <c r="D16">
-        <v>1.061706422750935</v>
+        <v>1.027935000791417</v>
       </c>
       <c r="E16">
-        <v>1.051980625947671</v>
+        <v>1.012582016090026</v>
       </c>
       <c r="F16">
-        <v>1.07100254331733</v>
+        <v>1.030984335594625</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050487975833877</v>
+        <v>1.048057564017368</v>
       </c>
       <c r="J16">
-        <v>1.061745073461655</v>
+        <v>1.034494506644734</v>
       </c>
       <c r="K16">
-        <v>1.065054758071468</v>
+        <v>1.041782303451703</v>
       </c>
       <c r="L16">
-        <v>1.055362136692049</v>
+        <v>1.026691732822306</v>
       </c>
       <c r="M16">
-        <v>1.07431978709618</v>
+        <v>1.044780717041303</v>
       </c>
       <c r="N16">
-        <v>1.063252873249833</v>
+        <v>1.035963607502349</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.056041646071894</v>
+        <v>1.009259852458976</v>
       </c>
       <c r="D17">
-        <v>1.062099187111381</v>
+        <v>1.030038905894967</v>
       </c>
       <c r="E17">
-        <v>1.052394648887167</v>
+        <v>1.014751471915556</v>
       </c>
       <c r="F17">
-        <v>1.071452450751064</v>
+        <v>1.033335391555808</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050647601348626</v>
+        <v>1.049080375111172</v>
       </c>
       <c r="J17">
-        <v>1.062091619229029</v>
+        <v>1.03636678073899</v>
       </c>
       <c r="K17">
-        <v>1.065376525191279</v>
+        <v>1.043539975222056</v>
       </c>
       <c r="L17">
-        <v>1.055704331837512</v>
+        <v>1.028505705284833</v>
       </c>
       <c r="M17">
-        <v>1.074699222406238</v>
+        <v>1.04678313008469</v>
       </c>
       <c r="N17">
-        <v>1.063599911151946</v>
+        <v>1.037838540440571</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056322530254894</v>
+        <v>1.010786078905974</v>
       </c>
       <c r="D18">
-        <v>1.062328250393509</v>
+        <v>1.031254508484508</v>
       </c>
       <c r="E18">
-        <v>1.052636140611726</v>
+        <v>1.016005173585811</v>
       </c>
       <c r="F18">
-        <v>1.071714884243594</v>
+        <v>1.034694083126878</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050740551484098</v>
+        <v>1.049670047851869</v>
       </c>
       <c r="J18">
-        <v>1.062293659288613</v>
+        <v>1.037447704148223</v>
       </c>
       <c r="K18">
-        <v>1.065564104572151</v>
+        <v>1.044554708321661</v>
       </c>
       <c r="L18">
-        <v>1.05590385699132</v>
+        <v>1.029553239773832</v>
       </c>
       <c r="M18">
-        <v>1.074920481878621</v>
+        <v>1.047939668381845</v>
       </c>
       <c r="N18">
-        <v>1.063802238131588</v>
+        <v>1.038920998885028</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056418298881871</v>
+        <v>1.011303932131851</v>
       </c>
       <c r="D19">
-        <v>1.062406350084131</v>
+        <v>1.031667072000216</v>
       </c>
       <c r="E19">
-        <v>1.052718482946467</v>
+        <v>1.016430706027652</v>
       </c>
       <c r="F19">
-        <v>1.071804369041601</v>
+        <v>1.035155259054401</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050772218517461</v>
+        <v>1.04986995764247</v>
       </c>
       <c r="J19">
-        <v>1.062362533791213</v>
+        <v>1.037814416128363</v>
       </c>
       <c r="K19">
-        <v>1.065628047042488</v>
+        <v>1.044898959651499</v>
       </c>
       <c r="L19">
-        <v>1.055971877827722</v>
+        <v>1.029908669827715</v>
       </c>
       <c r="M19">
-        <v>1.074995915722666</v>
+        <v>1.048332114404406</v>
       </c>
       <c r="N19">
-        <v>1.063871210443882</v>
+        <v>1.039288231638243</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.055989976854516</v>
+        <v>1.008977891825048</v>
       </c>
       <c r="D20">
-        <v>1.062057050276751</v>
+        <v>1.029814382343452</v>
       </c>
       <c r="E20">
-        <v>1.05235022824317</v>
+        <v>1.014519929680012</v>
       </c>
       <c r="F20">
-        <v>1.071404178908992</v>
+        <v>1.033084462743703</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050630491258547</v>
+        <v>1.048971357196565</v>
       </c>
       <c r="J20">
-        <v>1.062054447905702</v>
+        <v>1.036167064355858</v>
       </c>
       <c r="K20">
-        <v>1.065342013178534</v>
+        <v>1.043352486176472</v>
       </c>
       <c r="L20">
-        <v>1.055667624941538</v>
+        <v>1.028312179795497</v>
       </c>
       <c r="M20">
-        <v>1.074658518673769</v>
+        <v>1.046569481568079</v>
       </c>
       <c r="N20">
-        <v>1.063562687041076</v>
+        <v>1.037638540437267</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054597060088715</v>
+        <v>1.0012313738309</v>
       </c>
       <c r="D21">
-        <v>1.060921092880985</v>
+        <v>1.023652280210736</v>
       </c>
       <c r="E21">
-        <v>1.051152983423523</v>
+        <v>1.008167302581447</v>
       </c>
       <c r="F21">
-        <v>1.070103237288329</v>
+        <v>1.026200371688426</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050167878466308</v>
+        <v>1.04596712096226</v>
       </c>
       <c r="J21">
-        <v>1.061051720041684</v>
+        <v>1.030677701875057</v>
       </c>
       <c r="K21">
-        <v>1.064410888389174</v>
+        <v>1.038198993080818</v>
       </c>
       <c r="L21">
-        <v>1.054677626162505</v>
+        <v>1.022995577536399</v>
       </c>
       <c r="M21">
-        <v>1.073560914823969</v>
+        <v>1.040701808963048</v>
       </c>
       <c r="N21">
-        <v>1.062558535188476</v>
+        <v>1.032141382432105</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053720958058979</v>
+        <v>0.9962099961033209</v>
       </c>
       <c r="D22">
-        <v>1.060206596431725</v>
+        <v>1.019664741859447</v>
       </c>
       <c r="E22">
-        <v>1.050400210766407</v>
+        <v>1.004058480327675</v>
       </c>
       <c r="F22">
-        <v>1.069285363988763</v>
+        <v>1.021748220924597</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049875598250481</v>
+        <v>1.044011165051008</v>
       </c>
       <c r="J22">
-        <v>1.060420405924963</v>
+        <v>1.027117442197842</v>
       </c>
       <c r="K22">
-        <v>1.063824525920114</v>
+        <v>1.034856449272831</v>
       </c>
       <c r="L22">
-        <v>1.054054521346779</v>
+        <v>1.019549964402804</v>
       </c>
       <c r="M22">
-        <v>1.072870268866831</v>
+        <v>1.036900811853634</v>
       </c>
       <c r="N22">
-        <v>1.061926324533297</v>
+        <v>1.028576066777781</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054185427495554</v>
+        <v>0.9988868693376989</v>
       </c>
       <c r="D23">
-        <v>1.060585391015223</v>
+        <v>1.02178979887331</v>
       </c>
       <c r="E23">
-        <v>1.050799271904971</v>
+        <v>1.006247987811474</v>
       </c>
       <c r="F23">
-        <v>1.069718927001379</v>
+        <v>1.024120641959448</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050030676110769</v>
+        <v>1.045054656960644</v>
       </c>
       <c r="J23">
-        <v>1.06075515944292</v>
+        <v>1.029015560191445</v>
       </c>
       <c r="K23">
-        <v>1.064135456099531</v>
+        <v>1.036638499013378</v>
       </c>
       <c r="L23">
-        <v>1.054384903373911</v>
+        <v>1.021386711086639</v>
       </c>
       <c r="M23">
-        <v>1.073236444908902</v>
+        <v>1.038926834245573</v>
       </c>
       <c r="N23">
-        <v>1.062261553439646</v>
+        <v>1.030476880316652</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056013324053568</v>
+        <v>1.0091053449791</v>
       </c>
       <c r="D24">
-        <v>1.062076090189897</v>
+        <v>1.029915870531381</v>
       </c>
       <c r="E24">
-        <v>1.052370300022866</v>
+        <v>1.014624589725167</v>
       </c>
       <c r="F24">
-        <v>1.0714259908455</v>
+        <v>1.033197885627866</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050638223056059</v>
+        <v>1.04902063902066</v>
       </c>
       <c r="J24">
-        <v>1.06207124431789</v>
+        <v>1.036257341936426</v>
       </c>
       <c r="K24">
-        <v>1.06535760798658</v>
+        <v>1.043437236731231</v>
       </c>
       <c r="L24">
-        <v>1.055684211428752</v>
+        <v>1.028399658074513</v>
       </c>
       <c r="M24">
-        <v>1.07467691111994</v>
+        <v>1.046666055382947</v>
       </c>
       <c r="N24">
-        <v>1.063579507306096</v>
+        <v>1.037728946222354</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058133187565807</v>
+        <v>1.020366449699372</v>
       </c>
       <c r="D25">
-        <v>1.063804809852723</v>
+        <v>1.038895446548454</v>
       </c>
       <c r="E25">
-        <v>1.054193362087543</v>
+        <v>1.023889681513523</v>
       </c>
       <c r="F25">
-        <v>1.073407344832959</v>
+        <v>1.043239685221617</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051337102003237</v>
+        <v>1.053353556129023</v>
       </c>
       <c r="J25">
-        <v>1.063594796575069</v>
+        <v>1.044227317753502</v>
       </c>
       <c r="K25">
-        <v>1.066771852947434</v>
+        <v>1.050918540934771</v>
       </c>
       <c r="L25">
-        <v>1.057189186499579</v>
+        <v>1.036128124230029</v>
       </c>
       <c r="M25">
-        <v>1.076346193204516</v>
+        <v>1.055201894937008</v>
       </c>
       <c r="N25">
-        <v>1.065105223182234</v>
+        <v>1.04571024031926</v>
       </c>
     </row>
   </sheetData>
